--- a/spreadsheet/macrofree/aoai_checklist.es.xlsx
+++ b/spreadsheet/macrofree/aoai_checklist.es.xlsx
@@ -1064,12 +1064,12 @@
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Metaprompting (Metaincitación)</t>
+          <t>Metaprompting</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Siga las barreras de seguridad de Metaprompting para una IA responsable</t>
+          <t>Siga las barreras de seguridad de Metaprompting para una IA resonante</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Si los diagnósticos no son suficientes para usted, considere la posibilidad de usar una puerta de enlace como Azure API Managements frente a Azure OpenAI para registrar tanto los mensajes entrantes como las respuestas salientes, cuando esté permitido</t>
+          <t>Habilite y configure Diagnostics para el servicio Azure OpenAI. Si no es suficiente, considere la posibilidad de usar una puerta de enlace como Azure API Managements frente a Azure OpenAI para registrar los mensajes entrantes y las respuestas salientes, cuando esté permitido</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1427,7 +1427,7 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Defina y evalúe el rendimiento del sistema en función de los tokens y la respuesta por minuto y alinee con los requisitos</t>
+          <t>Defina y evalúe el rendimiento del sistema en función de los tokens y la respuesta por minuto, y alinee con los requisitos</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Mejore la latencia del sistema limitando el tamaño de los tokens, las opciones de transmisión</t>
+          <t>Mejore la latencia del sistema limitando el tamaño de los tokens, las opciones de transmisión para aplicaciones como chatbots o interfaces conversacionales. El streaming puede mejorar el rendimiento percibido de las aplicaciones de Azure OpenAI mediante la entrega de respuestas a los usuarios de forma incremental</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Implemente reintentos y comprobaciones de estado con el patrón de puerta de enlace como APIM</t>
+          <t>Implemente reintentos y comprobaciones de estado con un patrón de puerta de enlace como APIM</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Revise las consideraciones de la guía del kit de herramientas de HAI y aplique esas prácticas de interacción para el slution</t>
+          <t>Revise las consideraciones de la guía del kit de herramientas de HAI y aplique esas prácticas de interacción para la slution</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Realice copias de seguridad y replique regularmente los datos críticos para garantizar la disponibilidad y la capacidad de recuperación de los datos en caso de pérdida de datos o fallos del sistema. Aproveche los servicios de copia de seguridad y recuperación ante desastres de Azure para proteger sus datos.</t>
+          <t>Realice copias de seguridad y replique periódicamente los datos críticos para garantizar la disponibilidad y la capacidad de recuperación de los datos en caso de pérdida de datos o fallos del sistema. Aproveche los servicios de copia de seguridad y recuperación ante desastres de Azure para proteger sus datos.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2231,7 +2231,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/licensing/docs/view/Service-Level-Agreements-SLA-for-Online-Services?lang=1</t>
+          <t>https://learn.microsoft.com/azure/search/search-reliability</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2250,7 +2250,7 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Clasifique los datos y la confidencialidad, etiquetando con Microsoft Purview antes de generar las incrustaciones y asegúrese de tratar las incrustaciones generadas con la misma confidencialidad y clasificación</t>
+          <t>Clasifique los datos y la confidencialidad, etiquete con Microsoft Purview antes de generar las incrustaciones y asegúrese de tratar las incrustaciones generadas con la misma confidencialidad y clasificación</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2296,7 +2296,7 @@
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B35" s="21" t="inlineStr">
@@ -2342,7 +2342,7 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que TLS se aplica a los datos en tránsito a través de fuentes de datos, la búsqueda de IA utilizada para la generación aumentada de recuperación (RAG) y la comunicación de LLM</t>
+          <t>Asegúrese de que TLS se aplica para los datos en tránsito a través de fuentes de datos, la búsqueda de IA utilizada para la generación aumentada de recuperación (RAG) y la comunicación de LLM</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2388,7 +2388,7 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
@@ -2434,7 +2434,7 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
@@ -2480,7 +2480,7 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Defender para detectar y responder a las amenazas de seguridad y configurar mecanismos de supervisión y alerta para identificar actividades sospechosas o infracciones. Aproveche Azure Sentinel para la detección y respuesta a amenazas avanzadas</t>
+          <t>Utilice Azure Defender para detectar y responder a las amenazas de seguridad y configurar mecanismos de supervisión y alerta para identificar actividades sospechosas o infracciones. Aproveche Azure Sentinel para la detección y respuesta a amenazas avanzadas</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2507,7 +2507,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-cloud-introduction</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/ai-onboarding</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2526,7 +2526,7 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Implemente los escudos de aviso y la detección de conexión a tierra mediante Content Safety </t>
+          <t xml:space="preserve">Implemente los blindajes de aviso y la detección de conexión a tierra mediante Content Safety </t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2618,7 +2618,7 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Garantice el cumplimiento de las normativas de protección de datos pertinentes, como el RGPD o la HIPAA, mediante la implementación de controles de privacidad y la obtención de los consentimientos o permisos necesarios para las actividades de tratamiento de datos.</t>
+          <t>Garantizar el cumplimiento de las normativas de protección de datos pertinentes, como el RGPD o la HIPAA, mediante la implementación de controles de privacidad y la obtención de los consentimientos o permisos necesarios para las actividades de tratamiento de datos.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2664,7 +2664,7 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Eduque a sus empleados sobre las mejores prácticas de seguridad de datos, la importancia de manejar los datos de forma segura y los riesgos potenciales asociados con las violaciones de datos. Anímelos a seguir diligentemente los protocolos de seguridad de datos.</t>
+          <t>Eduque a sus empleados sobre las mejores prácticas de seguridad de datos, la importancia de manejar los datos de forma segura y los riesgos potenciales asociados con las violaciones de datos. Anímelos a seguir los protocolos de seguridad de datos con diligencia.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2706,12 +2706,12 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>Segregación del medio ambiente</t>
+          <t>Segregación del entorno</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
@@ -2748,7 +2748,7 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Si tiene distintos niveles de confidencialidad de datos, considere la posibilidad de crear índices independientes para cada nivel. Por ejemplo, podría tener un índice para los datos generales y otro para los datos confidenciales, cada uno gobernado por diferentes protocolos de acceso</t>
+          <t>Si tiene diferentes niveles de confidencialidad de datos, considere la posibilidad de crear índices independientes para cada nivel. Por ejemplo, podría tener un índice para los datos generales y otro para los datos confidenciales, cada uno gobernado por diferentes protocolos de acceso</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2789,7 +2789,7 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
@@ -2831,7 +2831,7 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
@@ -2873,7 +2873,7 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Aplique RBAC a los almacenes de datos que tienen incrustaciones y vectores y alcance el acceso en función de los requisitos de acceso del rol</t>
+          <t>Aplique RBAC a los almacenes de datos que tienen incrustaciones y vectores, y alcance el acceso en función de los requisitos de acceso del rol</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2918,7 +2918,7 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Configure un punto de conexión privado para que los servicios de IA restrinjan el acceso al servicio dentro de su red</t>
+          <t>Configure el punto de conexión privado para que los servicios de IA restrinjan el acceso al servicio dentro de la red</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -2963,7 +2963,7 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
@@ -3005,7 +3005,7 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
@@ -3047,7 +3047,7 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>Optimización de costes</t>
+          <t>Optimización de costos</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Utilice herramientas de compresión rápida como LLMLingua o gprtrim</t>
+          <t>Utilice herramientas de compresión de solicitudes como LLMLingua o gprtrim</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3093,12 +3093,12 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>API y endpoints seguros</t>
+          <t>API y puntos finales seguros</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
@@ -3138,7 +3138,7 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
@@ -3184,7 +3184,7 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
@@ -3225,7 +3225,7 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Realizar auditorías de seguridad y pruebas de penetración para identificar y abordar cualquier debilidad o vulnerabilidad de seguridad de red en la infraestructura de red de la aplicación LLM</t>
+          <t>Realizar auditorías de seguridad y pruebas de penetración para identificar y abordar cualquier debilidad o vulnerabilidad de seguridad de la red en la infraestructura de red de la aplicación LLM</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3266,7 +3266,7 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Los servicios de Azure AI están etiquetados correctamente para una mejor administración</t>
+          <t>Los servicios de IA de Azure están etiquetados correctamente para una mejor administración</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3311,7 +3311,7 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Las cuentas de Azure AI Service siguen las convenciones de nomenclatura de la organización</t>
+          <t>Las cuentas de servicio de IA de Azure siguen las convenciones de nomenclatura de la organización</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3356,7 +3356,7 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se recomienda deshabilitar el acceso a claves (autenticación local) por seguridad.  Después de deshabilitar el acceso basado en claves, el identificador de Microsoft Entra se convierte en el único método de acceso, lo que permite mantener el principio de privilegio mínimo y el control granular. </t>
+          <t xml:space="preserve">Se recomienda deshabilitar el acceso a la clave (autenticación local) por seguridad.  Después de deshabilitar el acceso basado en claves, el identificador de Microsoft Entra se convierte en el único método de acceso, lo que permite mantener el principio de privilegio mínimo y el control granular. </t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3446,7 +3446,7 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Almacene y administre claves de forma segura con Azure Key Vault. Evite codificar de forma rígida o incrustar claves confidenciales en el código de la aplicación de LLM y recupérelas de forma segura de Azure Key Vault mediante identidades administradas</t>
+          <t>Almacene y administre claves de forma segura mediante Azure Key Vault. Evite codificar de forma rígida o incrustar claves confidenciales en el código de la aplicación LLM y recupérelas de forma segura de Azure Key Vault mediante identidades administradas</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3491,7 +3491,7 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
@@ -3536,7 +3536,7 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>Optimización de costes</t>
+          <t>Optimización de costos</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Use tiktoken para comprender los tamaños de los tokens para las optimizaciones de tokens en el modo conversacional</t>
+          <t>Use tiktoken para comprender los tamaños de los tokens para las optimizaciones de tokens en modo conversacional</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3582,7 +3582,7 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Siga prácticas de codificación seguras para evitar vulnerabilidades comunes, como ataques de inyección, secuencias de comandos entre sitios (XSS) o errores de configuración de seguridad.</t>
+          <t>Siga prácticas de codificación seguras para evitar vulnerabilidades comunes, como ataques de inyección, secuencias de comandos entre sitios (XSS) o configuraciones incorrectas de seguridad.</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3628,7 +3628,7 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
@@ -3719,7 +3719,7 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>Optimización de costes</t>
+          <t>Optimización de costos</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Comprenda la diferencia en el costo de los modelos base y los modelos ajustados y los tamaños de paso de token</t>
+          <t>Comprender la diferencia en el costo de los modelos base y los modelos ajustados y los tamaños de paso de token</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3765,7 +3765,7 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>Optimización de costes</t>
+          <t>Optimización de costos</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
@@ -3811,7 +3811,7 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>Optimización de costes</t>
+          <t>Optimización de costos</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Configure un sistema de seguimiento de costos que supervise el uso del modelo y use esa información para ayudar a informar las opciones de modelos y los tamaños indicados</t>
+          <t>Configure un sistema de seguimiento de costos que supervise el uso del modelo y use esa información para ayudar a informar las opciones de modelos y los tamaños de las sugerencias</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -3857,7 +3857,7 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>Optimización de costes</t>
+          <t>Optimización de costos</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Establezca un límite máximo en el número de tokens por respuesta de modelo. Optimice el tamaño para asegurarse de que sea lo suficientemente grande para una respuesta válida</t>
+          <t>Establezca un límite máximo en el número de tokens por respuesta de modelo (max_tokens y el número de finalizaciones que se van a generar). Optimice el tamaño para asegurarse de que sea lo suficientemente grande para una respuesta válida</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Fiabilidad de la búsqueda con IA</t>
+          <t>Límites de vectores de búsqueda de IA</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Revise las instrucciones proporcionadas sobre la configuración de la búsqueda de IA para la confiabilidad</t>
+          <t>Planifique y administre el almacenamiento vectorial de búsqueda de IA</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -3930,7 +3930,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/search/search-reliability</t>
+          <t>https://learn.microsoft.com/azure/search/vector-search-index-size?tabs=portal-vector-quota</t>
         </is>
       </c>
       <c r="I71" s="15" t="n"/>
@@ -3938,7 +3938,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>71ca7da8-cfa9-462a-8594-946da97dc3a2</t>
+          <t>3266b225-86f4-4a16-92bd-ddea8a487cde</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -3954,12 +3954,12 @@
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>Límites del vector de búsqueda de IA</t>
+          <t>DevOps (Operaciones de desarrollo)</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Planifique y administre el almacenamiento de vectores de búsqueda de IA</t>
+          <t>Garantice la implementación de instancias de Azure OpenAI en sus diversos entornos, como el desarrollo, las pruebas y la producción, lo que respalda la inteligencia y la experimentación. Aplique prácticas de LLMOps para automatizar la gestión del ciclo de vida de sus aplicaciones GenAI</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -3976,7 +3976,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/search/vector-search-index-size?tabs=portal-vector-quota</t>
+          <t>https://learn.microsoft.com/azure/machine-learning/prompt-flow/how-to-end-to-end-llmops-with-prompt-flow?view=azureml-api-2</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -3984,7 +3984,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>3266b225-86f4-4a16-92bd-ddea8a487cde</t>
+          <t>b4861bc3-bc14-4aeb-9e66-e8d9a3aec218</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -3995,23 +3995,23 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>Gestión de Operaciones</t>
+          <t>Optimización de costos</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>DevOps (Operaciones de desarrollo)</t>
+          <t>Modelo de cálculo de costes</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Aplique prácticas de LLMOps para automatizar la gestión del ciclo de vida de sus aplicaciones GenAI</t>
+          <t>Evalúe el uso de los modelos de facturación: PAYG frente a PTU. Comience con PAYG y considere PTU cuando el uso sea predecible en producción, ya que ofrece memoria y proceso dedicados, capacidad reservada y latencia máxima constante para la versión del modelo especificada</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4022,7 +4022,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/machine-learning/prompt-flow/how-to-end-to-end-llmops-with-prompt-flow?view=azureml-api-2</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/provisioned-throughput-onboarding#understanding-the-provisioned-throughput-purchase-model</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4030,7 +4030,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>b4861bc3-bc14-4aeb-9e66-e8d9a3aec218</t>
+          <t>aa80932c-8ec9-4d1b-a770-26e5e6beba9e</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4041,23 +4041,23 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>Optimización de costes</t>
+          <t>Gestión de Operaciones</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>Modelo de cálculo de costes</t>
+          <t>DevOps (Operaciones de desarrollo)</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Evalúe el uso de los modelos de facturación: PAYG frente a PTU</t>
+          <t>Evalúe la calidad de los mensajes y las aplicaciones al cambiar entre versiones de modelo</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4068,7 +4068,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/provisioned-throughput-onboarding#understanding-the-provisioned-throughput-purchase-model</t>
+          <t>https://techcommunity.microsoft.com/t5/ai-azure-ai-services-blog/how-to-control-azure-openai-models/ba-p/4146793</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4076,7 +4076,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>aa80932c-8ec9-4d1b-a770-26e5e6beba9e</t>
+          <t>e6436b07-36db-455f-9796-03334bdf9cc2</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4092,12 +4092,12 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>DevOps (Operaciones de desarrollo)</t>
+          <t>Desarrollo</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Evalúe la calidad de los mensajes y las aplicaciones al cambiar entre versiones de modelo</t>
+          <t>Evalúe, supervise y perfeccione sus aplicaciones GenAI para obtener características como la fundamentación, la relevancia, la precisión, la coherencia y la fluidez</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4114,7 +4114,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/ai-azure-ai-services-blog/how-to-control-azure-openai-models/ba-p/4146793</t>
+          <t>https://learn.microsoft.com/azure/machine-learning/prompt-flow/concept-model-monitoring-generative-ai-evaluation-metrics?view=azureml-api-2</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4122,7 +4122,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>e6436b07-36db-455f-9796-03334bdf9cc2</t>
+          <t>3418db61-2712-4650-9bb4-7a393a080327</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Evalúe, supervise y perfeccione sus aplicaciones GenAI para características como la fundamentación, la relevancia, la precisión, la coherencia, la fluidez,</t>
+          <t>Evaluación de los resultados de búsqueda de Azure AI en función de diferentes parámetros de búsqueda</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4158,17 +4158,13 @@
         </is>
       </c>
       <c r="G76" s="21" t="n"/>
-      <c r="H76" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/machine-learning/prompt-flow/concept-model-monitoring-generative-ai-evaluation-metrics?view=azureml-api-2</t>
-        </is>
-      </c>
+      <c r="H76" s="15" t="n"/>
       <c r="I76" s="15" t="n"/>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>3418db61-2712-4650-9bb4-7a393a080327</t>
+          <t>294798b1-578b-4219-a46c-eb5443513592</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4189,7 +4185,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Evalúe los resultados de búsqueda de Azure AI en función de diferentes parámetros de búsqueda</t>
+          <t>Considere los modelos de ajuste fino como una forma de aumentar la precisión solo cuando haya probado otros enfoques básicos como la ingeniería de avisos y RAG con sus datos</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4204,13 +4200,17 @@
         </is>
       </c>
       <c r="G77" s="21" t="n"/>
-      <c r="H77" s="15" t="n"/>
+      <c r="H77" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/fine-tuning-considerations</t>
+        </is>
+      </c>
       <c r="I77" s="15" t="n"/>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>294798b1-578b-4219-a46c-eb5443513592</t>
+          <t>2744293b-b628-4537-a551-19b08e8f5854</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Considere los modelos de ajuste fino como una forma de aumentar la precisión solo cuando haya probado otros enfoques básicos como la ingeniería de avisos y RAG con sus datos</t>
+          <t>Utilice técnicas de ingeniería rápida para mejorar la precisión de las respuestas de LLM</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4248,7 +4248,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/fine-tuning-considerations</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/advanced-prompt-engineering?pivots=programming-language-chat-completions</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4256,7 +4256,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>2744293b-b628-4537-a551-19b08e8f5854</t>
+          <t>287d9cec-166c-4d07-8af9-b141a898a535</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4267,17 +4267,17 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>Gestión de Operaciones</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>Desarrollo</t>
+          <t>Auditorías de seguridad y pruebas de penetración</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Utilice técnicas de ingeniería rápida para mejorar la precisión de las respuestas de LLM</t>
+          <t>Equipo rojo con sus aplicaciones GenAI</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4294,7 +4294,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/advanced-prompt-engineering?pivots=programming-language-chat-completions</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/red-teaming</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4302,7 +4302,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>287d9cec-166c-4d07-8af9-b141a898a535</t>
+          <t>e737897e-71ca-47da-acfa-962a1594946d</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4313,17 +4313,17 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gestión de Operaciones</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Auditorías de seguridad y pruebas de penetración</t>
+          <t>Comentarios de los usuarios finales</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Equipo rojo con sus aplicaciones GenAI</t>
+          <t xml:space="preserve">Proporcione a los usuarios finales opciones de puntuación para las respuestas de LLM y realice un seguimiento de estas puntuaciones. </t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4340,7 +4340,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/red-teaming</t>
+          <t>https://www.microsoft.com/haxtoolkit/guideline/encourage-granular-feedback/</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4348,7 +4348,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>e737897e-71ca-47da-acfa-962a1594946d</t>
+          <t>edb117e6-76aa-4f66-aca4-8e5a95f2223e</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4364,12 +4364,12 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Comentarios de los usuarios finales</t>
+          <t>Puesta a punto</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proporcione a los usuarios finales opciones de puntuación para las respuestas de LLM y realice un seguimiento de estas puntuaciones. </t>
+          <t>Siga las instrucciones para realizar ajustes con archivos de datos de gran tamaño e importar los datos de un almacén de blobs de Azure. Los archivos grandes, de 100 MB o más, pueden volverse inestables cuando se cargan a través de formularios de varias partes porque las solicitudes son atómicas y no se pueden volver a intentar ni reanudar</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4386,7 +4386,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/haxtoolkit/guideline/encourage-granular-feedback/</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/fine-tuning?tabs=turbo%2Cpython-new&amp;pivots=programming-language-studio#import-training-data-from-azure-blob-store</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4394,7 +4394,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>edb117e6-76aa-4f66-aca4-8e5a95f2223e</t>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc411</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4405,23 +4405,23 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>Optimización de costes</t>
+          <t>Gestión de Operaciones</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Gestión de cuotas</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Considere las prácticas de administración de cuotas</t>
+          <t>Administre los límites de velocidad para las implementaciones de modelos y supervise el uso de tokens por minuto (TPM) y solicitudes por minuto (RPM) para implementaciones de pago por uso</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4432,7 +4432,7 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/fasttrack-for-azure/optimizing-azure-openai-a-guide-to-limits-quotas-and-best/ba-p/4076268</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/quota?tabs=rest</t>
         </is>
       </c>
       <c r="I82" s="15" t="n"/>
@@ -4440,7 +4440,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>d5f3547c-c346-4d81-9028-a71ffe1b9b5d</t>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc412</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4456,12 +4456,12 @@
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Equilibrio de carga</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Utilice soluciones de equilibrador de carga, como la puerta de enlace basada en APIM, para equilibrar la carga y la capacidad entre servicios y regiones</t>
+          <t>Supervisión del uso administrado por aprovisionamiento si usa el modelo de pago de rendimiento aprovisionado</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4478,7 +4478,7 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/aoai-apim/blob/main/README.md</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/monitor-openai</t>
         </is>
       </c>
       <c r="I83" s="15" t="n"/>
@@ -4486,7 +4486,7 @@
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>9de0d5d7-31d4-41e3-911c-817bfafbc410</t>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc413</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4495,221 +4495,598 @@
       <c r="P83" s="25" t="n"/>
     </row>
     <row r="84" ht="16.5" customHeight="1">
-      <c r="A84" s="21" t="n"/>
-      <c r="B84" s="21" t="n"/>
-      <c r="C84" s="21" t="n"/>
+      <c r="A84" s="21" t="inlineStr">
+        <is>
+          <t>Optimización de costos</t>
+        </is>
+      </c>
+      <c r="B84" s="21" t="inlineStr">
+        <is>
+          <t>Gestión de cuotas</t>
+        </is>
+      </c>
+      <c r="C84" s="21" t="inlineStr">
+        <is>
+          <t>Considere las prácticas de administración de cuotas. Use la cuota dinámica para determinados casos de uso en los que la aplicación pueda usar capacidad adicional de forma oportunista o en los que la propia aplicación controle la velocidad a la que se llama a la API de Azure OpenAI</t>
+        </is>
+      </c>
       <c r="D84" s="21" t="n"/>
-      <c r="E84" s="21" t="n"/>
+      <c r="E84" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G84" s="21" t="n"/>
-      <c r="H84" s="15" t="n"/>
+      <c r="H84" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/fasttrack-for-azure/optimizing-azure-openai-a-guide-to-limits-quotas-and-best/ba-p/4076268</t>
+        </is>
+      </c>
       <c r="I84" s="15" t="n"/>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
-      <c r="L84" s="25" t="n"/>
+      <c r="L84" s="25" t="inlineStr">
+        <is>
+          <t>d5f3547c-c346-4d81-9028-a71ffe1b9b5d</t>
+        </is>
+      </c>
       <c r="M84" s="25" t="n"/>
       <c r="N84" s="25" t="n"/>
       <c r="O84" s="25" t="n"/>
       <c r="P84" s="25" t="n"/>
     </row>
     <row r="85" ht="16.5" customHeight="1">
-      <c r="A85" s="21" t="n"/>
-      <c r="B85" s="21" t="n"/>
-      <c r="C85" s="21" t="n"/>
+      <c r="A85" s="21" t="inlineStr">
+        <is>
+          <t>IA responsable</t>
+        </is>
+      </c>
+      <c r="B85" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad del contenido</t>
+        </is>
+      </c>
+      <c r="C85" s="21" t="inlineStr">
+        <is>
+          <t>Ajuste los filtros de contenido para minimizar los falsos positivos de filtros demasiado agresivos</t>
+        </is>
+      </c>
       <c r="D85" s="21" t="n"/>
-      <c r="E85" s="21" t="n"/>
+      <c r="E85" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G85" s="21" t="n"/>
-      <c r="H85" s="15" t="n"/>
+      <c r="H85" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/content-filters</t>
+        </is>
+      </c>
       <c r="I85" s="15" t="n"/>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
-      <c r="L85" s="25" t="n"/>
+      <c r="L85" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc414</t>
+        </is>
+      </c>
       <c r="M85" s="25" t="n"/>
       <c r="N85" s="25" t="n"/>
       <c r="O85" s="25" t="n"/>
       <c r="P85" s="25" t="n"/>
     </row>
     <row r="86" ht="16.5" customHeight="1">
-      <c r="A86" s="21" t="n"/>
-      <c r="B86" s="21" t="n"/>
-      <c r="C86" s="21" t="n"/>
+      <c r="A86" s="21" t="inlineStr">
+        <is>
+          <t>Gobernabilidad y seguridad</t>
+        </is>
+      </c>
+      <c r="B86" s="21" t="inlineStr">
+        <is>
+          <t>Gestión de claves</t>
+        </is>
+      </c>
+      <c r="C86" s="21" t="inlineStr">
+        <is>
+          <t>Use claves administradas por el cliente para modelos ajustados y datos de entrenamiento que se cargan en Azure OpenAI</t>
+        </is>
+      </c>
       <c r="D86" s="21" t="n"/>
-      <c r="E86" s="21" t="n"/>
+      <c r="E86" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G86" s="21" t="n"/>
-      <c r="H86" s="15" t="n"/>
+      <c r="H86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/encrypt-data-at-rest</t>
+        </is>
+      </c>
       <c r="I86" s="15" t="n"/>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
-      <c r="L86" s="25" t="n"/>
+      <c r="L86" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc415</t>
+        </is>
+      </c>
       <c r="M86" s="25" t="n"/>
       <c r="N86" s="25" t="n"/>
       <c r="O86" s="25" t="n"/>
       <c r="P86" s="25" t="n"/>
     </row>
     <row r="87" ht="16.5" customHeight="1">
-      <c r="A87" s="21" t="n"/>
-      <c r="B87" s="21" t="n"/>
-      <c r="C87" s="21" t="n"/>
+      <c r="A87" s="21" t="inlineStr">
+        <is>
+          <t>Gobernabilidad y seguridad</t>
+        </is>
+      </c>
+      <c r="B87" s="21" t="inlineStr">
+        <is>
+          <t>Protección contra jailbreak</t>
+        </is>
+      </c>
+      <c r="C87" s="21" t="inlineStr">
+        <is>
+          <t>Implemente la detección de riesgos de jailbreak para proteger las implementaciones de sus modelos de lenguaje contra ataques de inyección rápida</t>
+        </is>
+      </c>
       <c r="D87" s="21" t="n"/>
-      <c r="E87" s="21" t="n"/>
+      <c r="E87" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G87" s="21" t="n"/>
-      <c r="H87" s="15" t="n"/>
+      <c r="H87" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/content-safety/concepts/jailbreak-detection</t>
+        </is>
+      </c>
       <c r="I87" s="15" t="n"/>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
-      <c r="L87" s="25" t="n"/>
+      <c r="L87" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc416</t>
+        </is>
+      </c>
       <c r="M87" s="25" t="n"/>
       <c r="N87" s="25" t="n"/>
       <c r="O87" s="25" t="n"/>
       <c r="P87" s="25" t="n"/>
     </row>
     <row r="88" ht="16.5" customHeight="1">
-      <c r="A88" s="21" t="n"/>
-      <c r="B88" s="21" t="n"/>
-      <c r="C88" s="21" t="n"/>
+      <c r="A88" s="21" t="inlineStr">
+        <is>
+          <t>Gobernabilidad y seguridad</t>
+        </is>
+      </c>
+      <c r="B88" s="21" t="inlineStr">
+        <is>
+          <t>Agotamiento de las cuotas</t>
+        </is>
+      </c>
+      <c r="C88" s="21" t="inlineStr">
+        <is>
+          <t>Use controles de seguridad como la limitación, el aislamiento del servicio y el patrón de puerta de enlace para evitar ataques que puedan agotar las cuotas de uso del modelo</t>
+        </is>
+      </c>
       <c r="D88" s="21" t="n"/>
-      <c r="E88" s="21" t="n"/>
+      <c r="E88" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G88" s="21" t="n"/>
-      <c r="H88" s="15" t="n"/>
+      <c r="H88" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/monitor-openai</t>
+        </is>
+      </c>
       <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
-      <c r="L88" s="25" t="n"/>
+      <c r="L88" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc417</t>
+        </is>
+      </c>
       <c r="M88" s="25" t="n"/>
       <c r="N88" s="25" t="n"/>
       <c r="O88" s="25" t="n"/>
       <c r="P88" s="25" t="n"/>
     </row>
     <row r="89" ht="16.5" customHeight="1">
-      <c r="A89" s="21" t="n"/>
-      <c r="B89" s="21" t="n"/>
-      <c r="C89" s="21" t="n"/>
+      <c r="A89" s="21" t="inlineStr">
+        <is>
+          <t>Optimización de costos</t>
+        </is>
+      </c>
+      <c r="B89" s="21" t="inlineStr">
+        <is>
+          <t>Estimación de costes</t>
+        </is>
+      </c>
+      <c r="C89" s="21" t="inlineStr">
+        <is>
+          <t>Desarrolle su modelo de costos, teniendo en cuenta los tamaños de las solicitudes. Comprender los tamaños de entrada y respuesta de solicitud y cómo se traduce el texto en tokens lo ayuda a crear un modelo de costos viable</t>
+        </is>
+      </c>
       <c r="D89" s="21" t="n"/>
-      <c r="E89" s="21" t="n"/>
+      <c r="E89" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G89" s="21" t="n"/>
-      <c r="H89" s="15" t="n"/>
+      <c r="H89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/manage-costs</t>
+        </is>
+      </c>
       <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
-      <c r="L89" s="25" t="n"/>
+      <c r="L89" s="25" t="inlineStr">
+        <is>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a9</t>
+        </is>
+      </c>
       <c r="M89" s="25" t="n"/>
       <c r="N89" s="25" t="n"/>
       <c r="O89" s="25" t="n"/>
       <c r="P89" s="25" t="n"/>
     </row>
     <row r="90" ht="16.5" customHeight="1">
-      <c r="A90" s="21" t="n"/>
-      <c r="B90" s="21" t="n"/>
-      <c r="C90" s="21" t="n"/>
+      <c r="A90" s="21" t="inlineStr">
+        <is>
+          <t>Optimización de costos</t>
+        </is>
+      </c>
+      <c r="B90" s="21" t="inlineStr">
+        <is>
+          <t>Selección de modelos</t>
+        </is>
+      </c>
+      <c r="C90" s="21" t="inlineStr">
+        <is>
+          <t>Tenga en cuenta los precios y las capacidades de los modelos cuando elija los modelos. Comience con modelos menos costosos para tareas menos complejas, como la generación de texto o las tareas de finalización, y para tareas complejas, como la traducción de idiomas o la comprensión de contenido, considere usar modelos más avanzados. Optimice los costos sin dejar de lograr el rendimiento deseado de la aplicación</t>
+        </is>
+      </c>
       <c r="D90" s="21" t="n"/>
-      <c r="E90" s="21" t="n"/>
+      <c r="E90" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G90" s="21" t="n"/>
-      <c r="H90" s="15" t="n"/>
+      <c r="H90" s="15" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/pricing/details/cognitive-services/openai-service/</t>
+        </is>
+      </c>
       <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
-      <c r="L90" s="25" t="n"/>
+      <c r="L90" s="25" t="inlineStr">
+        <is>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a1</t>
+        </is>
+      </c>
       <c r="M90" s="25" t="n"/>
       <c r="N90" s="25" t="n"/>
       <c r="O90" s="25" t="n"/>
       <c r="P90" s="25" t="n"/>
     </row>
     <row r="91" ht="16.5" customHeight="1">
-      <c r="A91" s="21" t="n"/>
-      <c r="B91" s="21" t="n"/>
-      <c r="C91" s="21" t="n"/>
+      <c r="A91" s="21" t="inlineStr">
+        <is>
+          <t>Optimización de costos</t>
+        </is>
+      </c>
+      <c r="B91" s="21" t="inlineStr">
+        <is>
+          <t>Optimización del uso</t>
+        </is>
+      </c>
+      <c r="C91" s="21" t="inlineStr">
+        <is>
+          <t>Maximice los puntos de interrupción de precios de Azure OpenAI, como el ajuste preciso, y los puntos de interrupción del modelo, como la generación de imágenes, para su beneficio. El ajuste fino se cobra por hora, use todo el tiempo que tenga disponible por hora para mejorar los resultados sin pasar al siguiente período de facturación. El costo de generar 100 imágenes es el mismo que el costo de 1 imagen</t>
+        </is>
+      </c>
       <c r="D91" s="21" t="n"/>
-      <c r="E91" s="21" t="n"/>
+      <c r="E91" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G91" s="21" t="n"/>
-      <c r="H91" s="15" t="n"/>
+      <c r="H91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/manage-costs</t>
+        </is>
+      </c>
       <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
-      <c r="L91" s="25" t="n"/>
+      <c r="L91" s="25" t="inlineStr">
+        <is>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a2</t>
+        </is>
+      </c>
       <c r="M91" s="25" t="n"/>
       <c r="N91" s="25" t="n"/>
       <c r="O91" s="25" t="n"/>
       <c r="P91" s="25" t="n"/>
     </row>
     <row r="92" ht="16.5" customHeight="1">
-      <c r="A92" s="21" t="n"/>
-      <c r="B92" s="21" t="n"/>
-      <c r="C92" s="21" t="n"/>
+      <c r="A92" s="21" t="inlineStr">
+        <is>
+          <t>Optimización de costos</t>
+        </is>
+      </c>
+      <c r="B92" s="21" t="inlineStr">
+        <is>
+          <t>Optimización del uso</t>
+        </is>
+      </c>
+      <c r="C92" s="21" t="inlineStr">
+        <is>
+          <t>Elimine los modelos ajustados no utilizados cuando ya no se consuman para evitar incurrir en una tarifa de alojamiento continua</t>
+        </is>
+      </c>
       <c r="D92" s="21" t="n"/>
-      <c r="E92" s="21" t="n"/>
+      <c r="E92" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G92" s="21" t="n"/>
-      <c r="H92" s="15" t="n"/>
+      <c r="H92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/manage-costs</t>
+        </is>
+      </c>
       <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
-      <c r="L92" s="25" t="n"/>
+      <c r="L92" s="25" t="inlineStr">
+        <is>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a3</t>
+        </is>
+      </c>
       <c r="M92" s="25" t="n"/>
       <c r="N92" s="25" t="n"/>
       <c r="O92" s="25" t="n"/>
       <c r="P92" s="25" t="n"/>
     </row>
     <row r="93" ht="16.5" customHeight="1">
-      <c r="A93" s="21" t="n"/>
-      <c r="B93" s="21" t="n"/>
-      <c r="C93" s="21" t="n"/>
+      <c r="A93" s="21" t="inlineStr">
+        <is>
+          <t>Optimización de costos</t>
+        </is>
+      </c>
+      <c r="B93" s="21" t="inlineStr">
+        <is>
+          <t>Optimización de tokens</t>
+        </is>
+      </c>
+      <c r="C93" s="21" t="inlineStr">
+        <is>
+          <t>Cree mensajes concisos que proporcionen suficiente contexto para que el modelo genere una respuesta útil. Asegúrese también de optimizar el límite de la longitud de la respuesta.</t>
+        </is>
+      </c>
       <c r="D93" s="21" t="n"/>
-      <c r="E93" s="21" t="n"/>
+      <c r="E93" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G93" s="21" t="n"/>
-      <c r="H93" s="15" t="n"/>
+      <c r="H93" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/manage-costs</t>
+        </is>
+      </c>
       <c r="I93" s="15" t="n"/>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
-      <c r="L93" s="25" t="n"/>
+      <c r="L93" s="25" t="inlineStr">
+        <is>
+          <t>7f42c78e-78cb-46a2-8ad1-90916e6a8d8g</t>
+        </is>
+      </c>
       <c r="M93" s="25" t="n"/>
       <c r="N93" s="25" t="n"/>
       <c r="O93" s="25" t="n"/>
       <c r="P93" s="25" t="n"/>
     </row>
     <row r="94" ht="16.5" customHeight="1">
-      <c r="A94" s="21" t="n"/>
-      <c r="B94" s="21" t="n"/>
-      <c r="C94" s="21" t="n"/>
+      <c r="A94" s="21" t="inlineStr">
+        <is>
+          <t>Gestión de Operaciones</t>
+        </is>
+      </c>
+      <c r="B94" s="21" t="inlineStr">
+        <is>
+          <t>IaC</t>
+        </is>
+      </c>
+      <c r="C94" s="21" t="inlineStr">
+        <is>
+          <t>Uso de la infraestructura como código (IaC) para implementar Azure OpenAI, implementaciones de modelos y otra infraestructura necesaria para ajustar los modelos</t>
+        </is>
+      </c>
       <c r="D94" s="21" t="n"/>
-      <c r="E94" s="21" t="n"/>
+      <c r="E94" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G94" s="21" t="n"/>
-      <c r="H94" s="15" t="n"/>
+      <c r="H94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/create-account-bicep</t>
+        </is>
+      </c>
       <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
-      <c r="L94" s="25" t="n"/>
+      <c r="L94" s="25" t="inlineStr">
+        <is>
+          <t>b4861bc3-bc14-4aeb-9e66-e8d9a3aec219</t>
+        </is>
+      </c>
       <c r="M94" s="25" t="n"/>
       <c r="N94" s="25" t="n"/>
       <c r="O94" s="25" t="n"/>
       <c r="P94" s="25" t="n"/>
     </row>
     <row r="95" ht="16.5" customHeight="1">
-      <c r="A95" s="21" t="n"/>
-      <c r="B95" s="21" t="n"/>
-      <c r="C95" s="21" t="n"/>
+      <c r="A95" s="21" t="inlineStr">
+        <is>
+          <t>Gestión de Operaciones</t>
+        </is>
+      </c>
+      <c r="B95" s="21" t="inlineStr">
+        <is>
+          <t>Equilibrio de carga</t>
+        </is>
+      </c>
+      <c r="C95" s="21" t="inlineStr">
+        <is>
+          <t>Utilice soluciones de equilibrador de carga, como la puerta de enlace basada en APIM, para equilibrar la carga y la capacidad entre servicios y regiones</t>
+        </is>
+      </c>
       <c r="D95" s="21" t="n"/>
-      <c r="E95" s="21" t="n"/>
+      <c r="E95" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G95" s="21" t="n"/>
-      <c r="H95" s="15" t="n"/>
+      <c r="H95" s="15" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/aoai-apim/blob/main/README.md</t>
+        </is>
+      </c>
       <c r="I95" s="15" t="n"/>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
-      <c r="L95" s="25" t="n"/>
+      <c r="L95" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc410</t>
+        </is>
+      </c>
       <c r="M95" s="25" t="n"/>
       <c r="N95" s="25" t="n"/>
       <c r="O95" s="25" t="n"/>
       <c r="P95" s="25" t="n"/>
     </row>
     <row r="96" ht="16.5" customHeight="1">
-      <c r="A96" s="21" t="n"/>
-      <c r="B96" s="21" t="n"/>
-      <c r="C96" s="21" t="n"/>
+      <c r="A96" s="21" t="inlineStr">
+        <is>
+          <t>Gestión de Operaciones</t>
+        </is>
+      </c>
+      <c r="B96" s="21" t="inlineStr">
+        <is>
+          <t>Desarrollo</t>
+        </is>
+      </c>
+      <c r="C96" s="21" t="inlineStr">
+        <is>
+          <t>Considere la posibilidad de usar implementaciones de modelos dedicados por grupo de consumidores para proporcionar aislamiento de uso por modelo que pueda ayudar a evitar vecinos ruidosos entre los grupos de consumidores</t>
+        </is>
+      </c>
       <c r="D96" s="21" t="n"/>
-      <c r="E96" s="21" t="n"/>
+      <c r="E96" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G96" s="21" t="n"/>
-      <c r="H96" s="15" t="n"/>
+      <c r="H96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/multitenant/service/openai</t>
+        </is>
+      </c>
       <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
-      <c r="L96" s="25" t="n"/>
+      <c r="L96" s="25" t="inlineStr">
+        <is>
+          <t>2744293b-b628-4537-a551-19b08e8f5855</t>
+        </is>
+      </c>
       <c r="M96" s="25" t="n"/>
       <c r="N96" s="25" t="n"/>
       <c r="O96" s="25" t="n"/>
@@ -7971,7 +8348,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F84" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F97" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -8077,7 +8454,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Este control aún no se ha examinado</t>
+          <t>Esta comprobación aún no se ha examinado</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -8148,12 +8525,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Recomendación entendida, pero no necesaria por los requisitos actuales</t>
+          <t>Recomendación comprendida, pero no necesaria por los requisitos actuales</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
